--- a/LibraryBooks.xlsx
+++ b/LibraryBooks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>Transaction</t>
+  </si>
+  <si>
+    <t>2025-03-14 12:59:02</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Purchase In</t>
+  </si>
+  <si>
+    <t>2025-03-14 12:59:41</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>2025-03-14 12:59:55</t>
   </si>
 </sst>
 </file>
@@ -366,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,6 +413,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
